--- a/Data/New_dataset.xlsx
+++ b/Data/New_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAURENSIA SIMANIHURUK\SANATA-DHARMA\Bangkit 2023\Capstone Project\Machine_Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F037A6FA-7E9E-48E0-880E-FBE9C4CC2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD415ED-4118-4F98-8E17-CFA1457E992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="996" windowWidth="22668" windowHeight="11964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New_dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="9">
   <si>
     <t>age</t>
   </si>
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +206,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +393,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -503,6 +515,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -548,8 +575,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,33 +936,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="K358" sqref="K358"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -939,10 +977,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>52.777597389999997</v>
+        <v>52.777597394431879</v>
       </c>
       <c r="C2">
-        <v>1.619696907</v>
+        <v>1.6196969066445219</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -962,10 +1000,10 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>48.092844370000002</v>
+        <v>48.092844369519213</v>
       </c>
       <c r="C3">
-        <v>1.6181043479999999</v>
+        <v>1.618104347525958</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -985,10 +1023,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>51.3557275</v>
+        <v>51.355727502374201</v>
       </c>
       <c r="C4">
-        <v>1.6102851170000001</v>
+        <v>1.610285116850652</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1008,10 +1046,10 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>51.840208490000002</v>
+        <v>51.840208489031603</v>
       </c>
       <c r="C5">
-        <v>1.6136124009999999</v>
+        <v>1.6136124012430351</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1031,10 +1069,10 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>52.536663390000001</v>
+        <v>52.536663385787833</v>
       </c>
       <c r="C6">
-        <v>1.6242763570000001</v>
+        <v>1.624276356834746</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1054,10 +1092,10 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>54.281713150000002</v>
+        <v>54.281713146397223</v>
       </c>
       <c r="C7">
-        <v>1.5888983050000001</v>
+        <v>1.5888983047927221</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1077,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>53.13599782</v>
+        <v>53.135997817790987</v>
       </c>
       <c r="C8">
-        <v>1.607523869</v>
+        <v>1.6075238686130939</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1100,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>51.71610802</v>
+        <v>51.716108019937877</v>
       </c>
       <c r="C9">
-        <v>1.6137944479999999</v>
+        <v>1.6137944484606479</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1123,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>49.401617569999999</v>
+        <v>49.401617573348346</v>
       </c>
       <c r="C10">
-        <v>1.597949091</v>
+        <v>1.5979490909102541</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1146,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>48.664491099999999</v>
+        <v>48.664491102251233</v>
       </c>
       <c r="C11">
-        <v>1.5907407339999999</v>
+        <v>1.590740733828278</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1169,10 +1207,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>48.040259730000002</v>
+        <v>48.040259729820853</v>
       </c>
       <c r="C12">
-        <v>1.6213862800000001</v>
+        <v>1.621386279672022</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1192,10 +1230,10 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>52.842234920000003</v>
+        <v>52.842234915551032</v>
       </c>
       <c r="C13">
-        <v>1.590235216</v>
+        <v>1.5902352162770179</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1215,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>52.491230170000001</v>
+        <v>52.49123016946259</v>
       </c>
       <c r="C14">
-        <v>1.6155623509999999</v>
+        <v>1.6155623513760291</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1238,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>53.757849450000002</v>
+        <v>53.757849447813271</v>
       </c>
       <c r="C15">
-        <v>1.622635831</v>
+        <v>1.622635831461982</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1261,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>52.950625639999998</v>
+        <v>52.950625638030303</v>
       </c>
       <c r="C16">
-        <v>1.622155555</v>
+        <v>1.6221555554501821</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1284,10 +1322,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>51.771714889999998</v>
+        <v>51.771714892017528</v>
       </c>
       <c r="C17">
-        <v>1.619651285</v>
+        <v>1.6196512852789109</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1307,10 +1345,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>52.577763089999998</v>
+        <v>52.577763085850073</v>
       </c>
       <c r="C18">
-        <v>1.617076679</v>
+        <v>1.6170766786283499</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1330,10 +1368,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>52.705272379999997</v>
+        <v>52.705272381837673</v>
       </c>
       <c r="C19">
-        <v>1.612358916</v>
+        <v>1.6123589157912199</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1353,10 +1391,10 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>53.15103783</v>
+        <v>53.15103782891201</v>
       </c>
       <c r="C20">
-        <v>1.6067450320000001</v>
+        <v>1.6067450324243859</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1376,10 +1414,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>47.88538337</v>
+        <v>47.885383370764238</v>
       </c>
       <c r="C21">
-        <v>1.59570637</v>
+        <v>1.5957063703831369</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1399,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>47.99201746</v>
+        <v>47.992017456068893</v>
       </c>
       <c r="C22">
-        <v>1.61457652</v>
+        <v>1.61457652034449</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1422,10 +1460,10 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>53.69452252</v>
+        <v>53.694522524579007</v>
       </c>
       <c r="C23">
-        <v>1.61201152</v>
+        <v>1.612011519984448</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1445,10 +1483,10 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>53.870140839999998</v>
+        <v>53.870140839957259</v>
       </c>
       <c r="C24">
-        <v>1.6091958799999999</v>
+        <v>1.6091958800922781</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1468,10 +1506,10 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>53.743850109999997</v>
+        <v>53.743850105238153</v>
       </c>
       <c r="C25">
-        <v>1.6199713680000001</v>
+        <v>1.6199713683020249</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1491,10 +1529,10 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>54.312281849999998</v>
+        <v>54.312281849260202</v>
       </c>
       <c r="C26">
-        <v>1.6239098030000001</v>
+        <v>1.623909803119308</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1514,10 +1552,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>52.365013820000001</v>
+        <v>52.365013815303087</v>
       </c>
       <c r="C27">
-        <v>1.601430106</v>
+        <v>1.6014301061977141</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1537,10 +1575,10 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>52.285412639999997</v>
+        <v>52.28541264405753</v>
       </c>
       <c r="C28">
-        <v>1.5894159400000001</v>
+        <v>1.5894159401378229</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1560,10 +1598,10 @@
         <v>17</v>
       </c>
       <c r="B29">
-        <v>52.298652750000002</v>
+        <v>52.298652751604202</v>
       </c>
       <c r="C29">
-        <v>1.5969193749999999</v>
+        <v>1.5969193752494031</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1583,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="B30">
-        <v>52.200921659999999</v>
+        <v>52.20092165826015</v>
       </c>
       <c r="C30">
-        <v>1.588119761</v>
+        <v>1.5881197611842159</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1606,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="B31">
-        <v>53.924343700000001</v>
+        <v>53.924343702563817</v>
       </c>
       <c r="C31">
-        <v>1.6192103339999999</v>
+        <v>1.619210333940021</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1629,10 +1667,10 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>49.860442190000001</v>
+        <v>49.860442188231197</v>
       </c>
       <c r="C32">
-        <v>1.6076603780000001</v>
+        <v>1.6076603783219849</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1652,10 +1690,10 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <v>47.910976050000002</v>
+        <v>47.910976051928102</v>
       </c>
       <c r="C33">
-        <v>1.6166782040000001</v>
+        <v>1.6166782038923051</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1675,10 +1713,10 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>49.100990899999999</v>
+        <v>49.100990903049322</v>
       </c>
       <c r="C34">
-        <v>1.6059937479999999</v>
+        <v>1.6059937478734101</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1698,10 +1736,10 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>54.119607909999999</v>
+        <v>54.119607914229412</v>
       </c>
       <c r="C35">
-        <v>1.62284198</v>
+        <v>1.6228419797013469</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1721,10 +1759,10 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>48.371476100000002</v>
+        <v>48.371476103616082</v>
       </c>
       <c r="C36">
-        <v>1.624879484</v>
+        <v>1.624879484392822</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1744,10 +1782,10 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>51.916434590000001</v>
+        <v>51.916434585061367</v>
       </c>
       <c r="C37">
-        <v>1.6244063040000001</v>
+        <v>1.62440630377115</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1767,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="B38">
-        <v>53.995034510000004</v>
+        <v>53.995034509881933</v>
       </c>
       <c r="C38">
-        <v>1.610271886</v>
+        <v>1.6102718860754419</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1790,10 +1828,10 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>52.677422849999999</v>
+        <v>52.677422845461919</v>
       </c>
       <c r="C39">
-        <v>1.590729823</v>
+        <v>1.590729823221398</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1813,10 +1851,10 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>54.235141570000003</v>
+        <v>54.23514157417339</v>
       </c>
       <c r="C40">
-        <v>1.5927155580000001</v>
+        <v>1.592715557714639</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1836,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="B41">
-        <v>49.72618216</v>
+        <v>49.72618216252441</v>
       </c>
       <c r="C41">
-        <v>1.6250087870000001</v>
+        <v>1.6250087865594729</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1859,10 +1897,10 @@
         <v>17</v>
       </c>
       <c r="B42">
-        <v>49.886620870000002</v>
+        <v>49.886620867951358</v>
       </c>
       <c r="C42">
-        <v>1.6251865679999999</v>
+        <v>1.6251865681069091</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1882,10 +1920,10 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>53.022247409999999</v>
+        <v>53.022247408338004</v>
       </c>
       <c r="C43">
-        <v>1.6054104330000001</v>
+        <v>1.6054104333542369</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1905,10 +1943,10 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <v>52.587976040000001</v>
+        <v>52.587976040111649</v>
       </c>
       <c r="C44">
-        <v>1.6047635520000001</v>
+        <v>1.604763551797576</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -1928,10 +1966,10 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>48.955671979999998</v>
+        <v>48.955671979980707</v>
       </c>
       <c r="C45">
-        <v>1.6076564040000001</v>
+        <v>1.607656403838061</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1951,10 +1989,10 @@
         <v>17</v>
       </c>
       <c r="B46">
-        <v>53.824621630000003</v>
+        <v>53.824621625535741</v>
       </c>
       <c r="C46">
-        <v>1.608033335</v>
+        <v>1.6080333349797959</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1974,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="B47">
-        <v>52.938878899999999</v>
+        <v>52.938878896955927</v>
       </c>
       <c r="C47">
-        <v>1.623221072</v>
+        <v>1.6232210719749809</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -1997,10 +2035,10 @@
         <v>17</v>
       </c>
       <c r="B48">
-        <v>49.5259699</v>
+        <v>49.525969902800661</v>
       </c>
       <c r="C48">
-        <v>1.5906748749999999</v>
+        <v>1.5906748746911159</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -2020,10 +2058,10 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>48.655346369999997</v>
+        <v>48.655346373944901</v>
       </c>
       <c r="C49">
-        <v>1.6115150330000001</v>
+        <v>1.6115150328192069</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2043,10 +2081,10 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>53.802556000000003</v>
+        <v>53.802555996042678</v>
       </c>
       <c r="C50">
-        <v>1.6069642909999999</v>
+        <v>1.6069642909501991</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -2066,10 +2104,10 @@
         <v>17</v>
       </c>
       <c r="B51">
-        <v>52.993646089999999</v>
+        <v>52.993646088440443</v>
       </c>
       <c r="C51">
-        <v>1.615199571</v>
+        <v>1.615199570571217</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2089,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="B52">
-        <v>49.48406215</v>
+        <v>49.484062148505323</v>
       </c>
       <c r="C52">
-        <v>1.6079626890000001</v>
+        <v>1.607962688726938</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2112,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="B53">
-        <v>52.746132789999997</v>
+        <v>52.746132788831162</v>
       </c>
       <c r="C53">
-        <v>1.609180936</v>
+        <v>1.6091809358726039</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2135,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>52.021810979999998</v>
+        <v>52.021810976708863</v>
       </c>
       <c r="C54">
-        <v>1.6253540280000001</v>
+        <v>1.6253540278957801</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2158,10 +2196,10 @@
         <v>17</v>
       </c>
       <c r="B55">
-        <v>53.374669670000003</v>
+        <v>53.374669673139401</v>
       </c>
       <c r="C55">
-        <v>1.593099244</v>
+        <v>1.593099244288094</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2181,10 +2219,10 @@
         <v>17</v>
       </c>
       <c r="B56">
-        <v>52.529986489999999</v>
+        <v>52.529986485598847</v>
       </c>
       <c r="C56">
-        <v>1.6231243769999999</v>
+        <v>1.6231243766887049</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2204,10 +2242,10 @@
         <v>17</v>
       </c>
       <c r="B57">
-        <v>49.564972449999999</v>
+        <v>49.564972445682308</v>
       </c>
       <c r="C57">
-        <v>1.6108109100000001</v>
+        <v>1.6108109104781081</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2227,10 +2265,10 @@
         <v>17</v>
       </c>
       <c r="B58">
-        <v>52.911850360000003</v>
+        <v>52.911850358681733</v>
       </c>
       <c r="C58">
-        <v>1.6000327160000001</v>
+        <v>1.600032716037187</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2250,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="B59">
-        <v>53.790816270000001</v>
+        <v>53.790816266409053</v>
       </c>
       <c r="C59">
-        <v>1.60065301</v>
+        <v>1.6006530103962939</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2273,10 +2311,10 @@
         <v>17</v>
       </c>
       <c r="B60">
-        <v>48.037683729999998</v>
+        <v>48.037683727597681</v>
       </c>
       <c r="C60">
-        <v>1.606974039</v>
+        <v>1.606974038556527</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2296,10 +2334,10 @@
         <v>17</v>
       </c>
       <c r="B61">
-        <v>50.5363629</v>
+        <v>50.536362899175643</v>
       </c>
       <c r="C61">
-        <v>1.6023081219999999</v>
+        <v>1.6023081215643951</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2319,10 +2357,10 @@
         <v>17</v>
       </c>
       <c r="B62">
-        <v>51.596373720000003</v>
+        <v>51.596373717151778</v>
       </c>
       <c r="C62">
-        <v>1.608113409</v>
+        <v>1.60811340876637</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2342,10 +2380,10 @@
         <v>17</v>
       </c>
       <c r="B63">
-        <v>53.823928299999999</v>
+        <v>53.823928296671568</v>
       </c>
       <c r="C63">
-        <v>1.600072411</v>
+        <v>1.6000724109844611</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2365,10 +2403,10 @@
         <v>17</v>
       </c>
       <c r="B64">
-        <v>49.390387939999997</v>
+        <v>49.390387939820137</v>
       </c>
       <c r="C64">
-        <v>1.606937262</v>
+        <v>1.606937262158362</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2388,10 +2426,10 @@
         <v>17</v>
       </c>
       <c r="B65">
-        <v>54.15946752</v>
+        <v>54.159467518260513</v>
       </c>
       <c r="C65">
-        <v>1.604942039</v>
+        <v>1.604942039116239</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2411,10 +2449,10 @@
         <v>17</v>
       </c>
       <c r="B66">
-        <v>49.118214780000002</v>
+        <v>49.118214782964429</v>
       </c>
       <c r="C66">
-        <v>1.6253460799999999</v>
+        <v>1.625346079781556</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2434,10 +2472,10 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>47.713257720000001</v>
+        <v>47.713257716059971</v>
       </c>
       <c r="C67">
-        <v>1.624243699</v>
+        <v>1.624243698525305</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2457,10 +2495,10 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>52.838253629999997</v>
+        <v>52.838253632572354</v>
       </c>
       <c r="C68">
-        <v>1.608920339</v>
+        <v>1.608920339265677</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -2480,10 +2518,10 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>49.546915319999997</v>
+        <v>49.546915315954493</v>
       </c>
       <c r="C69">
-        <v>1.6119701200000001</v>
+        <v>1.611970119832822</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -2495,7 +2533,7 @@
         <v>1.5</v>
       </c>
       <c r="G69">
-        <v>2152.7669999999998</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,10 +2541,10 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>50.076541669999997</v>
+        <v>50.076541671675251</v>
       </c>
       <c r="C70">
-        <v>1.593932433</v>
+        <v>1.593932432571447</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -2526,10 +2564,10 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>50.744810889999997</v>
+        <v>50.744810888368683</v>
       </c>
       <c r="C71">
-        <v>1.5925768380000001</v>
+        <v>1.5925768376255891</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2549,10 +2587,10 @@
         <v>17</v>
       </c>
       <c r="B72">
-        <v>52.567510030000001</v>
+        <v>52.567510032126918</v>
       </c>
       <c r="C72">
-        <v>1.5923927980000001</v>
+        <v>1.5923927975083469</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2572,10 +2610,10 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>51.39993235</v>
+        <v>51.39993234908993</v>
       </c>
       <c r="C73">
-        <v>1.598998613</v>
+        <v>1.598998612993767</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -2595,10 +2633,10 @@
         <v>17</v>
       </c>
       <c r="B74">
-        <v>54.39321589</v>
+        <v>54.393215886946109</v>
       </c>
       <c r="C74">
-        <v>1.6096255770000001</v>
+        <v>1.6096255774035451</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2618,10 +2656,10 @@
         <v>17</v>
       </c>
       <c r="B75">
-        <v>54.116042620000002</v>
+        <v>54.116042616623702</v>
       </c>
       <c r="C75">
-        <v>1.589716752</v>
+        <v>1.5897167520427291</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -2641,10 +2679,10 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>51.894811779999998</v>
+        <v>51.894811782634577</v>
       </c>
       <c r="C76">
-        <v>1.6046253109999999</v>
+        <v>1.604625310971908</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -2664,10 +2702,10 @@
         <v>17</v>
       </c>
       <c r="B77">
-        <v>53.880361600000001</v>
+        <v>53.880361602153073</v>
       </c>
       <c r="C77">
-        <v>1.596736156</v>
+        <v>1.5967361562258571</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2687,10 +2725,10 @@
         <v>17</v>
       </c>
       <c r="B78">
-        <v>49.280835570000001</v>
+        <v>49.280835573998232</v>
       </c>
       <c r="C78">
-        <v>1.588920468</v>
+        <v>1.588920468494617</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2710,10 +2748,10 @@
         <v>17</v>
       </c>
       <c r="B79">
-        <v>49.143630360000003</v>
+        <v>49.14363035705653</v>
       </c>
       <c r="C79">
-        <v>1.5926886200000001</v>
+        <v>1.592688619577121</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2733,10 +2771,10 @@
         <v>17</v>
       </c>
       <c r="B80">
-        <v>54.236992569999998</v>
+        <v>54.236992565016671</v>
       </c>
       <c r="C80">
-        <v>1.6040391409999999</v>
+        <v>1.6040391412039221</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2756,10 +2794,10 @@
         <v>17</v>
       </c>
       <c r="B81">
-        <v>48.233075499999998</v>
+        <v>48.233075495048197</v>
       </c>
       <c r="C81">
-        <v>1.616229731</v>
+        <v>1.616229730745421</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -2779,10 +2817,10 @@
         <v>17</v>
       </c>
       <c r="B82">
-        <v>52.279523580000003</v>
+        <v>52.27952358194441</v>
       </c>
       <c r="C82">
-        <v>1.596325749</v>
+        <v>1.5963257491773351</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2802,10 +2840,10 @@
         <v>17</v>
       </c>
       <c r="B83">
-        <v>52.919369469999999</v>
+        <v>52.919369465768483</v>
       </c>
       <c r="C83">
-        <v>1.614781491</v>
+        <v>1.6147814908887561</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2825,10 +2863,10 @@
         <v>17</v>
       </c>
       <c r="B84">
-        <v>52.15496478</v>
+        <v>52.15496477820362</v>
       </c>
       <c r="C84">
-        <v>1.6033832939999999</v>
+        <v>1.603383293762342</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2848,10 +2886,10 @@
         <v>17</v>
       </c>
       <c r="B85">
-        <v>52.382743499999997</v>
+        <v>52.382743496647493</v>
       </c>
       <c r="C85">
-        <v>1.606936186</v>
+        <v>1.606936185890415</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2871,10 +2909,10 @@
         <v>17</v>
       </c>
       <c r="B86">
-        <v>47.928515959999999</v>
+        <v>47.928515961921043</v>
       </c>
       <c r="C86">
-        <v>1.612241732</v>
+        <v>1.612241731513838</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2894,10 +2932,10 @@
         <v>17</v>
       </c>
       <c r="B87">
-        <v>48.509491099999998</v>
+        <v>48.509491099976117</v>
       </c>
       <c r="C87">
-        <v>1.599162266</v>
+        <v>1.5991622664250369</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2917,10 +2955,10 @@
         <v>17</v>
       </c>
       <c r="B88">
-        <v>53.291651690000002</v>
+        <v>53.291651686318993</v>
       </c>
       <c r="C88">
-        <v>1.610654874</v>
+        <v>1.6106548742661959</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2940,10 +2978,10 @@
         <v>17</v>
       </c>
       <c r="B89">
-        <v>51.656954640000002</v>
+        <v>51.656954639500157</v>
       </c>
       <c r="C89">
-        <v>1.5878145530000001</v>
+        <v>1.587814553034383</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2963,10 +3001,10 @@
         <v>17</v>
       </c>
       <c r="B90">
-        <v>48.016049260000003</v>
+        <v>48.016049263632283</v>
       </c>
       <c r="C90">
-        <v>1.619743344</v>
+        <v>1.619743344361569</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -2986,10 +3024,10 @@
         <v>17</v>
       </c>
       <c r="B91">
-        <v>52.881389460000001</v>
+        <v>52.881389458689362</v>
       </c>
       <c r="C91">
-        <v>1.590838703</v>
+        <v>1.5908387033275391</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -3009,10 +3047,10 @@
         <v>17</v>
       </c>
       <c r="B92">
-        <v>48.563869670000003</v>
+        <v>48.563869669173343</v>
       </c>
       <c r="C92">
-        <v>1.620713745</v>
+        <v>1.6207137450834419</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3032,10 +3070,10 @@
         <v>17</v>
       </c>
       <c r="B93">
-        <v>51.797926339999997</v>
+        <v>51.797926338651152</v>
       </c>
       <c r="C93">
-        <v>1.587746833</v>
+        <v>1.5877468329148721</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3055,10 +3093,10 @@
         <v>17</v>
       </c>
       <c r="B94">
-        <v>54.004926050000002</v>
+        <v>54.004926047196278</v>
       </c>
       <c r="C94">
-        <v>1.590172702</v>
+        <v>1.5901727021830701</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3078,10 +3116,10 @@
         <v>17</v>
       </c>
       <c r="B95">
-        <v>49.458793970000002</v>
+        <v>49.458793973627849</v>
       </c>
       <c r="C95">
-        <v>1.6174156470000001</v>
+        <v>1.6174156469560981</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3101,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="B96">
-        <v>51.218306990000002</v>
+        <v>51.218306987946811</v>
       </c>
       <c r="C96">
-        <v>1.614656737</v>
+        <v>1.614656737461784</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3124,10 +3162,10 @@
         <v>17</v>
       </c>
       <c r="B97">
-        <v>47.786156869999999</v>
+        <v>47.786156870875679</v>
       </c>
       <c r="C97">
-        <v>1.6217963820000001</v>
+        <v>1.6217963822477961</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3147,10 +3185,10 @@
         <v>17</v>
       </c>
       <c r="B98">
-        <v>53.480968769999997</v>
+        <v>53.480968766608747</v>
       </c>
       <c r="C98">
-        <v>1.596565381</v>
+        <v>1.596565380846241</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3170,10 +3208,10 @@
         <v>17</v>
       </c>
       <c r="B99">
-        <v>52.164910910000003</v>
+        <v>52.164910910526118</v>
       </c>
       <c r="C99">
-        <v>1.6220451950000001</v>
+        <v>1.622045195363891</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -3193,10 +3231,10 @@
         <v>17</v>
       </c>
       <c r="B100">
-        <v>51.02329237</v>
+        <v>51.02329237042062</v>
       </c>
       <c r="C100">
-        <v>1.608096245</v>
+        <v>1.608096244776976</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -3212,14 +3250,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>17</v>
       </c>
       <c r="B101">
-        <v>50.925782069999997</v>
+        <v>50.925782070615597</v>
       </c>
       <c r="C101">
-        <v>1.6024524259999999</v>
+        <v>1.6024524260223629</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3239,10 +3277,10 @@
         <v>18</v>
       </c>
       <c r="B102">
-        <v>57.685035739999996</v>
+        <v>57.685035735860673</v>
       </c>
       <c r="C102">
-        <v>1.6314019150000001</v>
+        <v>1.6314019147634919</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -3262,10 +3300,10 @@
         <v>18</v>
       </c>
       <c r="B103">
-        <v>57.044150500000001</v>
+        <v>57.044150495319457</v>
       </c>
       <c r="C103">
-        <v>1.632369615</v>
+        <v>1.632369614834688</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3285,10 +3323,10 @@
         <v>18</v>
       </c>
       <c r="B104">
-        <v>57.101139150000002</v>
+        <v>57.101139149908022</v>
       </c>
       <c r="C104">
-        <v>1.631902033</v>
+        <v>1.631902032970689</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3308,10 +3346,10 @@
         <v>18</v>
       </c>
       <c r="B105">
-        <v>57.611936890000003</v>
+        <v>57.611936890770878</v>
       </c>
       <c r="C105">
-        <v>1.6316134419999999</v>
+        <v>1.631613441559735</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3331,10 +3369,10 @@
         <v>18</v>
       </c>
       <c r="B106">
-        <v>56.766566709999999</v>
+        <v>56.766566713574683</v>
       </c>
       <c r="C106">
-        <v>1.6322608089999999</v>
+        <v>1.6322608090175299</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3354,10 +3392,10 @@
         <v>18</v>
       </c>
       <c r="B107">
-        <v>57.299720379999997</v>
+        <v>57.299720378616563</v>
       </c>
       <c r="C107">
-        <v>1.631215112</v>
+        <v>1.6312151123251779</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3377,10 +3415,10 @@
         <v>18</v>
       </c>
       <c r="B108">
-        <v>56.863664929999999</v>
+        <v>56.863664934478372</v>
       </c>
       <c r="C108">
-        <v>1.6317172870000001</v>
+        <v>1.631717287355549</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -3400,10 +3438,10 @@
         <v>18</v>
       </c>
       <c r="B109">
-        <v>57.109425719999997</v>
+        <v>57.109425724205643</v>
       </c>
       <c r="C109">
-        <v>1.6311285129999999</v>
+        <v>1.631128512727777</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -3423,10 +3461,10 @@
         <v>18</v>
       </c>
       <c r="B110">
-        <v>57.877040639999997</v>
+        <v>57.877040641295032</v>
       </c>
       <c r="C110">
-        <v>1.6322222289999999</v>
+        <v>1.632222228623663</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -3446,10 +3484,10 @@
         <v>18</v>
       </c>
       <c r="B111">
-        <v>57.640756170000003</v>
+        <v>57.640756173554358</v>
       </c>
       <c r="C111">
-        <v>1.6327106979999999</v>
+        <v>1.632710697684836</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -3469,10 +3507,10 @@
         <v>18</v>
       </c>
       <c r="B112">
-        <v>57.891581600000002</v>
+        <v>57.89158159750891</v>
       </c>
       <c r="C112">
-        <v>1.6314887280000001</v>
+        <v>1.6314887280768131</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -3492,10 +3530,10 @@
         <v>18</v>
       </c>
       <c r="B113">
-        <v>57.475124200000003</v>
+        <v>57.475124200208931</v>
       </c>
       <c r="C113">
-        <v>1.633210506</v>
+        <v>1.633210505950911</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -3515,10 +3553,10 @@
         <v>18</v>
       </c>
       <c r="B114">
-        <v>56.84391574</v>
+        <v>56.843915744880348</v>
       </c>
       <c r="C114">
-        <v>1.6317733510000001</v>
+        <v>1.631773350557979</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3538,10 +3576,10 @@
         <v>18</v>
       </c>
       <c r="B115">
-        <v>57.233466980000003</v>
+        <v>57.233466979038731</v>
       </c>
       <c r="C115">
-        <v>1.63112243</v>
+        <v>1.631122429771179</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -3561,10 +3599,10 @@
         <v>18</v>
       </c>
       <c r="B116">
-        <v>57.204074060000003</v>
+        <v>57.204074060640203</v>
       </c>
       <c r="C116">
-        <v>1.631761711</v>
+        <v>1.631761710554819</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -3584,10 +3622,10 @@
         <v>18</v>
       </c>
       <c r="B117">
-        <v>57.707135299999997</v>
+        <v>57.707135298975381</v>
       </c>
       <c r="C117">
-        <v>1.631387167</v>
+        <v>1.6313871671047731</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -3607,10 +3645,10 @@
         <v>18</v>
       </c>
       <c r="B118">
-        <v>56.965420190000003</v>
+        <v>56.965420189290022</v>
       </c>
       <c r="C118">
-        <v>1.631327908</v>
+        <v>1.631327908113932</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -3630,10 +3668,10 @@
         <v>18</v>
       </c>
       <c r="B119">
-        <v>56.704664960000002</v>
+        <v>56.704664955727139</v>
       </c>
       <c r="C119">
-        <v>1.632621959</v>
+        <v>1.632621958699416</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3653,10 +3691,10 @@
         <v>18</v>
       </c>
       <c r="B120">
-        <v>56.736684750000002</v>
+        <v>56.736684752401523</v>
       </c>
       <c r="C120">
-        <v>1.632306153</v>
+        <v>1.632306153414433</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3676,10 +3714,10 @@
         <v>18</v>
       </c>
       <c r="B121">
-        <v>46.722772239999998</v>
+        <v>46.7227722390259</v>
       </c>
       <c r="C121">
-        <v>1.530968713</v>
+        <v>1.53096871262141</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -3699,10 +3737,10 @@
         <v>18</v>
       </c>
       <c r="B122">
-        <v>47.558755159999997</v>
+        <v>47.5587551582448</v>
       </c>
       <c r="C122">
-        <v>1.5508537790000001</v>
+        <v>1.5508537791394601</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3722,10 +3760,10 @@
         <v>18</v>
       </c>
       <c r="B123">
-        <v>46.95675868</v>
+        <v>46.956758676866201</v>
       </c>
       <c r="C123">
-        <v>1.500833248</v>
+        <v>1.5008332484375699</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -3745,10 +3783,10 @@
         <v>18</v>
       </c>
       <c r="B124">
-        <v>47.958857049999999</v>
+        <v>47.958857053218999</v>
       </c>
       <c r="C124">
-        <v>1.561032311</v>
+        <v>1.5610323109917801</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -3768,10 +3806,10 @@
         <v>18</v>
       </c>
       <c r="B125">
-        <v>46.705080649999999</v>
+        <v>46.705080648890998</v>
       </c>
       <c r="C125">
-        <v>1.572010911</v>
+        <v>1.57201091070724</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3791,10 +3829,10 @@
         <v>18</v>
       </c>
       <c r="B126">
-        <v>40.286882130000002</v>
+        <v>40.2868821342526</v>
       </c>
       <c r="C126">
-        <v>1.5707162589999999</v>
+        <v>1.5707162594052499</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -3814,10 +3852,10 @@
         <v>18</v>
       </c>
       <c r="B127">
-        <v>42.779016589999998</v>
+        <v>42.779016590397397</v>
       </c>
       <c r="C127">
-        <v>1.5819330760000001</v>
+        <v>1.58193307597201</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -3837,10 +3875,10 @@
         <v>18</v>
       </c>
       <c r="B128">
-        <v>45.114094989999998</v>
+        <v>45.114094992597998</v>
       </c>
       <c r="C128">
-        <v>1.5922030840000001</v>
+        <v>1.5922030837382</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3860,10 +3898,10 @@
         <v>18</v>
       </c>
       <c r="B129">
-        <v>48.341562240000002</v>
+        <v>48.3415622409901</v>
       </c>
       <c r="C129">
-        <v>1.6024152410000001</v>
+        <v>1.6024152411686501</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -3883,10 +3921,10 @@
         <v>18</v>
       </c>
       <c r="B130">
-        <v>49.756875780000001</v>
+        <v>49.756875776957699</v>
       </c>
       <c r="C130">
-        <v>1.6111961450000001</v>
+        <v>1.6111961450660099</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -3902,14 +3940,14 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>18</v>
       </c>
       <c r="B131">
-        <v>50.769812620000003</v>
+        <v>50.769812615350702</v>
       </c>
       <c r="C131">
-        <v>1.62291282</v>
+        <v>1.62291282007531</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -3929,10 +3967,10 @@
         <v>19</v>
       </c>
       <c r="B132">
-        <v>57.679936640000001</v>
+        <v>57.679936643607093</v>
       </c>
       <c r="C132">
-        <v>1.6307182790000001</v>
+        <v>1.6307182793834669</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3952,10 +3990,10 @@
         <v>19</v>
       </c>
       <c r="B133">
-        <v>57.289870610000001</v>
+        <v>57.289870608812528</v>
       </c>
       <c r="C133">
-        <v>1.6321701019999999</v>
+        <v>1.6321701016181751</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3975,10 +4013,10 @@
         <v>19</v>
       </c>
       <c r="B134">
-        <v>57.298311830000003</v>
+        <v>57.29831182956768</v>
       </c>
       <c r="C134">
-        <v>1.6307598029999999</v>
+        <v>1.6307598029631269</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3998,10 +4036,10 @@
         <v>19</v>
       </c>
       <c r="B135">
-        <v>56.824228040000001</v>
+        <v>56.824228041873823</v>
       </c>
       <c r="C135">
-        <v>1.6320411319999999</v>
+        <v>1.632041131769846</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -4021,10 +4059,10 @@
         <v>19</v>
       </c>
       <c r="B136">
-        <v>56.740354910000001</v>
+        <v>56.740354906277823</v>
       </c>
       <c r="C136">
-        <v>1.6323528540000001</v>
+        <v>1.632352853638817</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -4044,10 +4082,10 @@
         <v>19</v>
       </c>
       <c r="B137">
-        <v>57.325893970000003</v>
+        <v>57.325893970317978</v>
       </c>
       <c r="C137">
-        <v>1.630796242</v>
+        <v>1.6307962420878379</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -4067,10 +4105,10 @@
         <v>19</v>
       </c>
       <c r="B138">
-        <v>56.89776732</v>
+        <v>56.897767317307959</v>
       </c>
       <c r="C138">
-        <v>1.63183806</v>
+        <v>1.631838060218834</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -4090,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="B139">
-        <v>57.637845110000001</v>
+        <v>57.637845105676838</v>
       </c>
       <c r="C139">
-        <v>1.631762916</v>
+        <v>1.6317629158578939</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -4113,10 +4151,10 @@
         <v>19</v>
       </c>
       <c r="B140">
-        <v>55.490856260000001</v>
+        <v>55.490856256326097</v>
       </c>
       <c r="C140">
-        <v>1.6215322130000001</v>
+        <v>1.62153221334488</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -4136,10 +4174,10 @@
         <v>19</v>
       </c>
       <c r="B141">
-        <v>55.27862631</v>
+        <v>55.278626306461597</v>
       </c>
       <c r="C141">
-        <v>1.6118174789999999</v>
+        <v>1.6118174788089801</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -4159,10 +4197,10 @@
         <v>19</v>
       </c>
       <c r="B142">
-        <v>56.346711550000002</v>
+        <v>56.346711547628203</v>
       </c>
       <c r="C142">
-        <v>1.602502146</v>
+        <v>1.60250214604945</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -4182,10 +4220,10 @@
         <v>19</v>
       </c>
       <c r="B143">
-        <v>48.160832689999999</v>
+        <v>48.160832685318198</v>
       </c>
       <c r="C143">
-        <v>1.581159336</v>
+        <v>1.58115933560911</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -4205,10 +4243,10 @@
         <v>19</v>
       </c>
       <c r="B144">
-        <v>54.896106639999999</v>
+        <v>54.8961066355211</v>
       </c>
       <c r="C144">
-        <v>1.601784085</v>
+        <v>1.60178408470143</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4228,10 +4266,10 @@
         <v>19</v>
       </c>
       <c r="B145">
-        <v>53.901787380000002</v>
+        <v>53.901787384675202</v>
       </c>
       <c r="C145">
-        <v>1.6118918739999999</v>
+        <v>1.6118918738843999</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4251,10 +4289,10 @@
         <v>19</v>
       </c>
       <c r="B146">
-        <v>52.268965960000003</v>
+        <v>52.268965964155903</v>
       </c>
       <c r="C146">
-        <v>1.6232204109999999</v>
+        <v>1.6232204108946799</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4274,10 +4312,10 @@
         <v>19</v>
       </c>
       <c r="B147">
-        <v>57.022576239999999</v>
+        <v>57.022576235044063</v>
       </c>
       <c r="C147">
-        <v>1.5909607509999999</v>
+        <v>1.5909607512508801</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -4297,10 +4335,10 @@
         <v>19</v>
       </c>
       <c r="B148">
-        <v>58.934049960000003</v>
+        <v>58.934049961943799</v>
       </c>
       <c r="C148">
-        <v>1.643010938</v>
+        <v>1.64301093789246</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4320,10 +4358,10 @@
         <v>19</v>
       </c>
       <c r="B149">
-        <v>60.45575659</v>
+        <v>60.455756591065303</v>
       </c>
       <c r="C149">
-        <v>1.6509201490000001</v>
+        <v>1.65092014936819</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -4343,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="B150">
-        <v>61.641558170000003</v>
+        <v>61.641558169207798</v>
       </c>
       <c r="C150">
-        <v>1.6425524920000001</v>
+        <v>1.64255249195369</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4362,14 +4400,14 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>19</v>
       </c>
       <c r="B151">
-        <v>65.168522510000003</v>
+        <v>65.1685225072642</v>
       </c>
       <c r="C151">
-        <v>1.7017585479999999</v>
+        <v>1.70175854751074</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -4389,10 +4427,10 @@
         <v>20</v>
       </c>
       <c r="B152">
-        <v>56.822984499999997</v>
+        <v>56.822984500660873</v>
       </c>
       <c r="C152">
-        <v>1.633162966</v>
+        <v>1.633162966469041</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
@@ -4412,10 +4450,10 @@
         <v>20</v>
       </c>
       <c r="B153">
-        <v>57.384392200000001</v>
+        <v>57.384392200242353</v>
       </c>
       <c r="C153">
-        <v>1.632815192</v>
+        <v>1.632815191808775</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -4435,10 +4473,10 @@
         <v>20</v>
       </c>
       <c r="B154">
-        <v>57.059066899999998</v>
+        <v>57.059066895235489</v>
       </c>
       <c r="C154">
-        <v>1.6320777049999999</v>
+        <v>1.6320777053550299</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -4458,10 +4496,10 @@
         <v>20</v>
       </c>
       <c r="B155">
-        <v>57.981211299999998</v>
+        <v>57.981211299107017</v>
       </c>
       <c r="C155">
-        <v>1.6328868990000001</v>
+        <v>1.6328868993815671</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -4481,10 +4519,10 @@
         <v>20</v>
       </c>
       <c r="B156">
-        <v>57.630888130000002</v>
+        <v>57.630888134844227</v>
       </c>
       <c r="C156">
-        <v>1.6315089570000001</v>
+        <v>1.63150895670645</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -4504,10 +4542,10 @@
         <v>20</v>
       </c>
       <c r="B157">
-        <v>57.849152840000002</v>
+        <v>57.849152843021351</v>
       </c>
       <c r="C157">
-        <v>1.6309341420000001</v>
+        <v>1.6309341415063729</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -4527,10 +4565,10 @@
         <v>20</v>
       </c>
       <c r="B158">
-        <v>57.76825968</v>
+        <v>57.768259683660943</v>
       </c>
       <c r="C158">
-        <v>1.630850344</v>
+        <v>1.630850344177569</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -4550,10 +4588,10 @@
         <v>20</v>
       </c>
       <c r="B159">
-        <v>56.993532070000001</v>
+        <v>56.9935320650021</v>
       </c>
       <c r="C159">
-        <v>1.6327894279999999</v>
+        <v>1.632789428243433</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -4573,10 +4611,10 @@
         <v>20</v>
       </c>
       <c r="B160">
-        <v>56.885153369999998</v>
+        <v>56.885153372814557</v>
       </c>
       <c r="C160">
-        <v>1.62269379</v>
+        <v>1.6226937898845799</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -4596,10 +4634,10 @@
         <v>20</v>
       </c>
       <c r="B161">
-        <v>50.316378569999998</v>
+        <v>50.316378568214901</v>
       </c>
       <c r="C161">
-        <v>1.610910045</v>
+        <v>1.6109100454366301</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -4619,10 +4657,10 @@
         <v>20</v>
       </c>
       <c r="B162">
-        <v>51.134093149999998</v>
+        <v>51.134093147274697</v>
       </c>
       <c r="C162">
-        <v>1.6023345680000001</v>
+        <v>1.6023345678191101</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -4642,10 +4680,10 @@
         <v>20</v>
       </c>
       <c r="B163">
-        <v>52.428633640000001</v>
+        <v>52.428633636553897</v>
       </c>
       <c r="C163">
-        <v>1.5815307569999999</v>
+        <v>1.5815307568475401</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -4665,10 +4703,10 @@
         <v>20</v>
       </c>
       <c r="B164">
-        <v>53.787417380000001</v>
+        <v>53.787417379300003</v>
       </c>
       <c r="C164">
-        <v>1.6325480409999999</v>
+        <v>1.6325480405871839</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -4688,10 +4726,10 @@
         <v>20</v>
       </c>
       <c r="B165">
-        <v>54.704498489999999</v>
+        <v>54.704498489205697</v>
       </c>
       <c r="C165">
-        <v>1.6321715910000001</v>
+        <v>1.632171591446512</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
@@ -4711,10 +4749,10 @@
         <v>20</v>
       </c>
       <c r="B166">
-        <v>55.76219055</v>
+        <v>55.762190553581597</v>
       </c>
       <c r="C166">
-        <v>1.6309034819999999</v>
+        <v>1.6309034818133039</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4734,10 +4772,10 @@
         <v>20</v>
       </c>
       <c r="B167">
-        <v>57.336701419999997</v>
+        <v>57.336701423727447</v>
       </c>
       <c r="C167">
-        <v>1.6332084140000001</v>
+        <v>1.6332084143854551</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
@@ -4757,10 +4795,10 @@
         <v>20</v>
       </c>
       <c r="B168">
-        <v>56.904833050000001</v>
+        <v>56.904833049362253</v>
       </c>
       <c r="C168">
-        <v>1.6320965569999999</v>
+        <v>1.632096557029278</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -4780,10 +4818,10 @@
         <v>20</v>
       </c>
       <c r="B169">
-        <v>57.645549819999999</v>
+        <v>57.645549822144837</v>
       </c>
       <c r="C169">
-        <v>1.6313660670000001</v>
+        <v>1.6313660669184129</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -4803,10 +4841,10 @@
         <v>20</v>
       </c>
       <c r="B170">
-        <v>45.723637490000002</v>
+        <v>45.723637491139897</v>
       </c>
       <c r="C170">
-        <v>1.603123896</v>
+        <v>1.60312389580453</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -4822,14 +4860,14 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>20</v>
       </c>
       <c r="B171">
-        <v>50.957245299999997</v>
+        <v>50.957245296139398</v>
       </c>
       <c r="C171">
-        <v>1.5811056370000001</v>
+        <v>1.58110563738063</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -4849,10 +4887,10 @@
         <v>21</v>
       </c>
       <c r="B172">
-        <v>57.190691430000001</v>
+        <v>57.190691434449668</v>
       </c>
       <c r="C172">
-        <v>1.6314394969999999</v>
+        <v>1.6314394974609501</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
@@ -4872,10 +4910,10 @@
         <v>21</v>
       </c>
       <c r="B173">
-        <v>57.712365740000003</v>
+        <v>57.712365740979671</v>
       </c>
       <c r="C173">
-        <v>1.6321971070000001</v>
+        <v>1.6321971073734221</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -4895,10 +4933,10 @@
         <v>21</v>
       </c>
       <c r="B174">
-        <v>58.042257990000003</v>
+        <v>58.042257990487897</v>
       </c>
       <c r="C174">
-        <v>1.5520086319999999</v>
+        <v>1.55200863162403</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
@@ -4918,10 +4956,10 @@
         <v>21</v>
       </c>
       <c r="B175">
-        <v>58.79534683</v>
+        <v>58.795346829148201</v>
       </c>
       <c r="C175">
-        <v>1.5618748410000001</v>
+        <v>1.5618748408729399</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -4941,10 +4979,10 @@
         <v>21</v>
       </c>
       <c r="B176">
-        <v>59.770848669999999</v>
+        <v>59.770848671861401</v>
       </c>
       <c r="C176">
-        <v>1.5714701689999999</v>
+        <v>1.5714701691111199</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -4964,10 +5002,10 @@
         <v>21</v>
       </c>
       <c r="B177">
-        <v>59.881731500000001</v>
+        <v>59.8817315038525</v>
       </c>
       <c r="C177">
-        <v>1.6016785259999999</v>
+        <v>1.6016785262506399</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -4987,10 +5025,10 @@
         <v>21</v>
       </c>
       <c r="B178">
-        <v>60.059722180000001</v>
+        <v>60.059722184486198</v>
       </c>
       <c r="C178">
-        <v>1.602418173</v>
+        <v>1.60241817294911</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
@@ -5010,10 +5048,10 @@
         <v>21</v>
       </c>
       <c r="B179">
-        <v>60.44136795</v>
+        <v>60.441367953192803</v>
       </c>
       <c r="C179">
-        <v>1.62092898</v>
+        <v>1.62092898036282</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
@@ -5033,10 +5071,10 @@
         <v>21</v>
       </c>
       <c r="B180">
-        <v>61.934171020000001</v>
+        <v>61.9341710177913</v>
       </c>
       <c r="C180">
-        <v>1.6513071530000001</v>
+        <v>1.65130715337987</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -5056,10 +5094,10 @@
         <v>21</v>
       </c>
       <c r="B181">
-        <v>62.36932135</v>
+        <v>62.369321348589096</v>
       </c>
       <c r="C181">
-        <v>1.6710203729999999</v>
+        <v>1.6710203726031601</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -5079,10 +5117,10 @@
         <v>21</v>
       </c>
       <c r="B182">
-        <v>63.167786339999999</v>
+        <v>63.1677863364323</v>
       </c>
       <c r="C182">
-        <v>1.6810657630000001</v>
+        <v>1.6810657629077701</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -5102,10 +5140,10 @@
         <v>21</v>
       </c>
       <c r="B183">
-        <v>64.960977439999994</v>
+        <v>64.9609774449318</v>
       </c>
       <c r="C183">
-        <v>1.7016255629999999</v>
+        <v>1.70162556300732</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -5125,10 +5163,10 @@
         <v>21</v>
       </c>
       <c r="B184">
-        <v>65.063460269999993</v>
+        <v>65.063460274956398</v>
       </c>
       <c r="C184">
-        <v>1.723054697</v>
+        <v>1.72305469670477</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -5148,10 +5186,10 @@
         <v>21</v>
       </c>
       <c r="B185">
-        <v>66.323912849999999</v>
+        <v>66.323912852209702</v>
       </c>
       <c r="C185">
-        <v>1.651248965</v>
+        <v>1.6512489645928901</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -5171,10 +5209,10 @@
         <v>21</v>
       </c>
       <c r="B186">
-        <v>68.90289928</v>
+        <v>68.902899279881495</v>
       </c>
       <c r="C186">
-        <v>1.651620466</v>
+        <v>1.65162046584977</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -5194,10 +5232,10 @@
         <v>21</v>
       </c>
       <c r="B187">
-        <v>70.308564450000006</v>
+        <v>70.308564447524105</v>
       </c>
       <c r="C187">
-        <v>1.701062388</v>
+        <v>1.7010623883859799</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
@@ -5217,10 +5255,10 @@
         <v>21</v>
       </c>
       <c r="B188">
-        <v>72.601468639999993</v>
+        <v>72.601468641726598</v>
       </c>
       <c r="C188">
-        <v>1.802984774</v>
+        <v>1.80298477395118</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
@@ -5240,10 +5278,10 @@
         <v>21</v>
       </c>
       <c r="B189">
-        <v>74.679420120000003</v>
+        <v>74.679420115140402</v>
       </c>
       <c r="C189">
-        <v>1.8107123810000001</v>
+        <v>1.8107123814083399</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
@@ -5263,10 +5301,10 @@
         <v>21</v>
       </c>
       <c r="B190">
-        <v>75.835277770000005</v>
+        <v>75.8352777728729</v>
       </c>
       <c r="C190">
-        <v>1.8210924770000001</v>
+        <v>1.8210924774795301</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -5282,14 +5320,14 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>21</v>
       </c>
       <c r="B191">
-        <v>75.612410220000001</v>
+        <v>75.612410219100198</v>
       </c>
       <c r="C191">
-        <v>1.832623629</v>
+        <v>1.83262362902719</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -5309,10 +5347,10 @@
         <v>22</v>
       </c>
       <c r="B192">
-        <v>61.262625440000001</v>
+        <v>61.262625442692162</v>
       </c>
       <c r="C192">
-        <v>1.632955843</v>
+        <v>1.6329558430163611</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -5332,10 +5370,10 @@
         <v>22</v>
       </c>
       <c r="B193">
-        <v>61.779083919999998</v>
+        <v>61.779083923406517</v>
       </c>
       <c r="C193">
-        <v>1.6330075740000001</v>
+        <v>1.63300757363416</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -5355,10 +5393,10 @@
         <v>22</v>
       </c>
       <c r="B194">
-        <v>63.342286369999997</v>
+        <v>63.342286369340641</v>
       </c>
       <c r="C194">
-        <v>1.6323187459999999</v>
+        <v>1.6323187464765749</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -5378,10 +5416,10 @@
         <v>22</v>
       </c>
       <c r="B195">
-        <v>63.06832867</v>
+        <v>63.068328665399783</v>
       </c>
       <c r="C195">
-        <v>1.631412616</v>
+        <v>1.6314126157911031</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -5401,10 +5439,10 @@
         <v>22</v>
       </c>
       <c r="B196">
-        <v>61.426107700000003</v>
+        <v>61.426107698091883</v>
       </c>
       <c r="C196">
-        <v>1.6326828950000001</v>
+        <v>1.6326828954310491</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
@@ -5424,10 +5462,10 @@
         <v>22</v>
       </c>
       <c r="B197">
-        <v>63.4719756</v>
+        <v>63.471975604413899</v>
       </c>
       <c r="C197">
-        <v>1.6311459699999999</v>
+        <v>1.63114597013888</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -5447,10 +5485,10 @@
         <v>22</v>
       </c>
       <c r="B198">
-        <v>60.563531939999997</v>
+        <v>60.563531940629026</v>
       </c>
       <c r="C198">
-        <v>1.6326659590000001</v>
+        <v>1.6326659591475681</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -5470,10 +5508,10 @@
         <v>22</v>
       </c>
       <c r="B199">
-        <v>60.893146010000002</v>
+        <v>60.893146006053342</v>
       </c>
       <c r="C199">
-        <v>1.6308741769999999</v>
+        <v>1.6308741765905119</v>
       </c>
       <c r="D199" t="s">
         <v>8</v>
@@ -5493,10 +5531,10 @@
         <v>22</v>
       </c>
       <c r="B200">
-        <v>65.063766670000007</v>
+        <v>65.063766673458403</v>
       </c>
       <c r="C200">
-        <v>1.640738772</v>
+        <v>1.64073877235167</v>
       </c>
       <c r="D200" t="s">
         <v>8</v>
@@ -5516,10 +5554,10 @@
         <v>22</v>
       </c>
       <c r="B201">
-        <v>66.11474398</v>
+        <v>66.114743982214193</v>
       </c>
       <c r="C201">
-        <v>1.6421935489999999</v>
+        <v>1.6421935494795099</v>
       </c>
       <c r="D201" t="s">
         <v>8</v>
@@ -5539,10 +5577,10 @@
         <v>22</v>
       </c>
       <c r="B202">
-        <v>64.134260710000007</v>
+        <v>64.134260714206803</v>
       </c>
       <c r="C202">
-        <v>1.6514459880000001</v>
+        <v>1.6514459878890799</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -5562,10 +5600,10 @@
         <v>22</v>
       </c>
       <c r="B203">
-        <v>68.146625749999998</v>
+        <v>68.146625750169605</v>
       </c>
       <c r="C203">
-        <v>1.651633707</v>
+        <v>1.65163370700644</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -5585,10 +5623,10 @@
         <v>22</v>
       </c>
       <c r="B204">
-        <v>68.163677640000003</v>
+        <v>68.163677643495305</v>
       </c>
       <c r="C204">
-        <v>1.6626970050000001</v>
+        <v>1.6626970048957901</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -5608,10 +5646,10 @@
         <v>22</v>
       </c>
       <c r="B205">
-        <v>69.140015660000003</v>
+        <v>69.140015658090206</v>
       </c>
       <c r="C205">
-        <v>1.661402601</v>
+        <v>1.66140260135621</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
@@ -5631,10 +5669,10 @@
         <v>22</v>
       </c>
       <c r="B206">
-        <v>69.674924349999998</v>
+        <v>69.674924350951798</v>
       </c>
       <c r="C206">
-        <v>1.670699157</v>
+        <v>1.67069915696315</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -5654,10 +5692,10 @@
         <v>22</v>
       </c>
       <c r="B207">
-        <v>70.514423620000002</v>
+        <v>70.514423624699603</v>
       </c>
       <c r="C207">
-        <v>1.681313214</v>
+        <v>1.68131321367332</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -5677,10 +5715,10 @@
         <v>22</v>
       </c>
       <c r="B208">
-        <v>70.449437889999999</v>
+        <v>70.449437887916503</v>
       </c>
       <c r="C208">
-        <v>1.691271118</v>
+        <v>1.6912711179815001</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -5700,10 +5738,10 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>71.15241795</v>
+        <v>71.152417947372399</v>
       </c>
       <c r="C209">
-        <v>1.7030005930000001</v>
+        <v>1.7030005928616201</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
@@ -5723,10 +5761,10 @@
         <v>22</v>
       </c>
       <c r="B210">
-        <v>72.198464389999998</v>
+        <v>72.198464385158303</v>
       </c>
       <c r="C210">
-        <v>1.7108380809999999</v>
+        <v>1.7108380812685</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
@@ -5742,14 +5780,14 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>22</v>
       </c>
       <c r="B211">
-        <v>72.696140779999993</v>
+        <v>72.6961407765328</v>
       </c>
       <c r="C211">
-        <v>1.751113718</v>
+        <v>1.7511137179113001</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -5769,10 +5807,10 @@
         <v>23</v>
       </c>
       <c r="B212">
-        <v>62.408714340000003</v>
+        <v>62.408714342685613</v>
       </c>
       <c r="C212">
-        <v>1.6315567580000001</v>
+        <v>1.6315567577301719</v>
       </c>
       <c r="D212" t="s">
         <v>8</v>
@@ -5792,10 +5830,10 @@
         <v>23</v>
       </c>
       <c r="B213">
-        <v>63.195799440000002</v>
+        <v>63.195799437918083</v>
       </c>
       <c r="C213">
-        <v>1.63114957</v>
+        <v>1.6311495702729679</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -5815,10 +5853,10 @@
         <v>23</v>
       </c>
       <c r="B214">
-        <v>60.658745709999998</v>
+        <v>60.658745707203067</v>
       </c>
       <c r="C214">
-        <v>1.633150699</v>
+        <v>1.633150699090598</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -5838,10 +5876,10 @@
         <v>23</v>
       </c>
       <c r="B215">
-        <v>60.90840687</v>
+        <v>60.908406873711932</v>
       </c>
       <c r="C215">
-        <v>1.6307178389999999</v>
+        <v>1.630717839002283</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -5861,10 +5899,10 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <v>64.008017120000005</v>
+        <v>64.008017124988996</v>
       </c>
       <c r="C216">
-        <v>1.632336373</v>
+        <v>1.632336372716976</v>
       </c>
       <c r="D216" t="s">
         <v>8</v>
@@ -5884,10 +5922,10 @@
         <v>23</v>
       </c>
       <c r="B217">
-        <v>65.280504370000003</v>
+        <v>65.280504373136196</v>
       </c>
       <c r="C217">
-        <v>1.641532733</v>
+        <v>1.6415327329799401</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -5907,10 +5945,10 @@
         <v>23</v>
       </c>
       <c r="B218">
-        <v>66.718255439999993</v>
+        <v>66.718255438635794</v>
       </c>
       <c r="C218">
-        <v>1.653133757</v>
+        <v>1.65313375688411</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -5930,10 +5968,10 @@
         <v>23</v>
       </c>
       <c r="B219">
-        <v>67.148992989999996</v>
+        <v>67.148992987861405</v>
       </c>
       <c r="C219">
-        <v>1.6014162590000001</v>
+        <v>1.6014162590958401</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -5953,10 +5991,10 @@
         <v>23</v>
       </c>
       <c r="B220">
-        <v>68.114751260000006</v>
+        <v>68.114751264364202</v>
       </c>
       <c r="C220">
-        <v>1.6815993520000001</v>
+        <v>1.68159935211879</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -5976,10 +6014,10 @@
         <v>23</v>
       </c>
       <c r="B221">
-        <v>70.056075539999995</v>
+        <v>70.056075537773097</v>
       </c>
       <c r="C221">
-        <v>1.651369168</v>
+        <v>1.6513691682066201</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
@@ -5999,10 +6037,10 @@
         <v>23</v>
       </c>
       <c r="B222">
-        <v>58.608866239999998</v>
+        <v>58.6088662437488</v>
       </c>
       <c r="C222">
-        <v>1.602754271</v>
+        <v>1.60275427075855</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -6022,10 +6060,10 @@
         <v>23</v>
       </c>
       <c r="B223">
-        <v>55.534176760000001</v>
+        <v>55.534176759665698</v>
       </c>
       <c r="C223">
-        <v>1.6017557259999999</v>
+        <v>1.6017557257495001</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
@@ -6045,10 +6083,10 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>50.409560130000003</v>
+        <v>50.409560130512901</v>
       </c>
       <c r="C224">
-        <v>1.5818997450000001</v>
+        <v>1.58189974524429</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -6068,10 +6106,10 @@
         <v>23</v>
       </c>
       <c r="B225">
-        <v>48.08361979</v>
+        <v>48.0836197866372</v>
       </c>
       <c r="C225">
-        <v>1.5511984029999999</v>
+        <v>1.55119840327237</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
@@ -6091,10 +6129,10 @@
         <v>23</v>
       </c>
       <c r="B226">
-        <v>48.472052490000003</v>
+        <v>48.472052487004703</v>
       </c>
       <c r="C226">
-        <v>1.551980551</v>
+        <v>1.5519805509519</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -6114,10 +6152,10 @@
         <v>23</v>
       </c>
       <c r="B227">
-        <v>45.650327339999997</v>
+        <v>45.650327341231701</v>
       </c>
       <c r="C227">
-        <v>1.582390545</v>
+        <v>1.5823905450188001</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -6137,10 +6175,10 @@
         <v>23</v>
       </c>
       <c r="B228">
-        <v>49.327898730000001</v>
+        <v>49.327898725241297</v>
       </c>
       <c r="C228">
-        <v>1.60121578</v>
+        <v>1.60121577971133</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -6160,10 +6198,10 @@
         <v>23</v>
       </c>
       <c r="B229">
-        <v>40.612850289999997</v>
+        <v>40.612850292704699</v>
       </c>
       <c r="C229">
-        <v>1.5411063140000001</v>
+        <v>1.5411063135507901</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -6183,10 +6221,10 @@
         <v>23</v>
       </c>
       <c r="B230">
-        <v>42.356526000000002</v>
+        <v>42.356525999054902</v>
       </c>
       <c r="C230">
-        <v>1.5331463000000001</v>
+        <v>1.5331462997823</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -6202,14 +6240,14 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>23</v>
       </c>
       <c r="B231">
-        <v>44.03969171</v>
+        <v>44.039691706652597</v>
       </c>
       <c r="C231">
-        <v>1.5720163890000001</v>
+        <v>1.5720163889911201</v>
       </c>
       <c r="D231" t="s">
         <v>8</v>
@@ -6229,10 +6267,10 @@
         <v>24</v>
       </c>
       <c r="B232">
-        <v>63.791945380000001</v>
+        <v>63.791945376552931</v>
       </c>
       <c r="C232">
-        <v>1.6321204419999999</v>
+        <v>1.632120442073314</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -6252,22 +6290,22 @@
         <v>24</v>
       </c>
       <c r="B233">
-        <v>61.134809429999997</v>
+        <v>61.134809425933739</v>
       </c>
       <c r="C233">
-        <v>1.6030865089999999</v>
+        <v>1.6030865088564199</v>
       </c>
       <c r="D233" t="s">
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1514</v>
+        <v>1495</v>
       </c>
       <c r="F233">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G233">
-        <v>2611</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6275,10 +6313,10 @@
         <v>24</v>
       </c>
       <c r="B234">
-        <v>62.575839690000002</v>
+        <v>62.5758396881889</v>
       </c>
       <c r="C234">
-        <v>1.6312961109999999</v>
+        <v>1.631296110770815</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -6298,10 +6336,10 @@
         <v>24</v>
       </c>
       <c r="B235">
-        <v>60.488291969999999</v>
+        <v>60.488291965663002</v>
       </c>
       <c r="C235">
-        <v>1.5608445179999999</v>
+        <v>1.5608445183723001</v>
       </c>
       <c r="D235" t="s">
         <v>8</v>
@@ -6321,10 +6359,10 @@
         <v>24</v>
       </c>
       <c r="B236">
-        <v>58.596482729999998</v>
+        <v>58.596482731221798</v>
       </c>
       <c r="C236">
-        <v>1.572852675</v>
+        <v>1.57285267511758</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
@@ -6344,10 +6382,10 @@
         <v>24</v>
       </c>
       <c r="B237">
-        <v>55.834922290000002</v>
+        <v>55.834922294464803</v>
       </c>
       <c r="C237">
-        <v>1.581448712</v>
+        <v>1.5814487119917999</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -6367,10 +6405,10 @@
         <v>24</v>
       </c>
       <c r="B238">
-        <v>48.593741780000002</v>
+        <v>48.593741776871099</v>
       </c>
       <c r="C238">
-        <v>1.581975111</v>
+        <v>1.5819751106239199</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -6390,10 +6428,10 @@
         <v>24</v>
       </c>
       <c r="B239">
-        <v>65.27124689</v>
+        <v>65.271246890358597</v>
       </c>
       <c r="C239">
-        <v>1.6629712130000001</v>
+        <v>1.6629712131794701</v>
       </c>
       <c r="D239" t="s">
         <v>8</v>
@@ -6413,10 +6451,10 @@
         <v>24</v>
       </c>
       <c r="B240">
-        <v>68.442424079999995</v>
+        <v>68.442424078328401</v>
       </c>
       <c r="C240">
-        <v>1.6814764710000001</v>
+        <v>1.6814764712008901</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -6436,10 +6474,10 @@
         <v>24</v>
       </c>
       <c r="B241">
-        <v>70.28569933</v>
+        <v>70.285699332943693</v>
       </c>
       <c r="C241">
-        <v>1.7020113939999999</v>
+        <v>1.7020113943739199</v>
       </c>
       <c r="D241" t="s">
         <v>8</v>
@@ -6453,6 +6491,2626 @@
       <c r="G241">
         <v>2265</v>
       </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>24</v>
+      </c>
+      <c r="B242">
+        <v>45.495504094045501</v>
+      </c>
+      <c r="C242">
+        <v>1.5513845144995799</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>1524</v>
+      </c>
+      <c r="F242">
+        <v>1.5</v>
+      </c>
+      <c r="G242">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>24</v>
+      </c>
+      <c r="B243">
+        <v>48.5389847544796</v>
+      </c>
+      <c r="C243">
+        <v>1.57173391597046</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243">
+        <v>1504</v>
+      </c>
+      <c r="F243">
+        <v>1.3</v>
+      </c>
+      <c r="G243">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>24</v>
+      </c>
+      <c r="B244">
+        <v>49.422935954939902</v>
+      </c>
+      <c r="C244">
+        <v>1.5822858931492001</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244">
+        <v>1338</v>
+      </c>
+      <c r="F244">
+        <v>1.3</v>
+      </c>
+      <c r="G244">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>24</v>
+      </c>
+      <c r="B245">
+        <v>67.482145457764105</v>
+      </c>
+      <c r="C245">
+        <v>1.7025306724049001</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245">
+        <v>1368</v>
+      </c>
+      <c r="F245">
+        <v>1.7</v>
+      </c>
+      <c r="G245">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>24</v>
+      </c>
+      <c r="B246">
+        <v>68.445703328290307</v>
+      </c>
+      <c r="C246">
+        <v>1.7031224528214901</v>
+      </c>
+      <c r="D246" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246">
+        <v>1628</v>
+      </c>
+      <c r="F246">
+        <v>1.3</v>
+      </c>
+      <c r="G246">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>24</v>
+      </c>
+      <c r="B247">
+        <v>69.012472013181807</v>
+      </c>
+      <c r="C247">
+        <v>1.70291812431366</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247">
+        <v>1638</v>
+      </c>
+      <c r="F247">
+        <v>1.3</v>
+      </c>
+      <c r="G247">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>24</v>
+      </c>
+      <c r="B248">
+        <v>70.1727332606484</v>
+      </c>
+      <c r="C248">
+        <v>1.7207585750226599</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248">
+        <v>1660</v>
+      </c>
+      <c r="F248">
+        <v>1.5</v>
+      </c>
+      <c r="G248">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>24</v>
+      </c>
+      <c r="B249">
+        <v>72.997461164806595</v>
+      </c>
+      <c r="C249">
+        <v>1.72118652076907</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249">
+        <v>1680</v>
+      </c>
+      <c r="F249">
+        <v>1.3</v>
+      </c>
+      <c r="G249">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>24</v>
+      </c>
+      <c r="B250">
+        <v>75.198719468948795</v>
+      </c>
+      <c r="C250">
+        <v>1.75164697137582</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250">
+        <v>1729</v>
+      </c>
+      <c r="F250">
+        <v>1.5</v>
+      </c>
+      <c r="G250">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>24</v>
+      </c>
+      <c r="B251">
+        <v>78.362896993583803</v>
+      </c>
+      <c r="C251">
+        <v>1.7519243402683</v>
+      </c>
+      <c r="D251" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251">
+        <v>1759</v>
+      </c>
+      <c r="F251">
+        <v>1.5</v>
+      </c>
+      <c r="G251">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>25</v>
+      </c>
+      <c r="B252">
+        <v>61.847126370358197</v>
+      </c>
+      <c r="C252">
+        <v>1.6332045412435769</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <v>1343</v>
+      </c>
+      <c r="F252">
+        <v>1.3</v>
+      </c>
+      <c r="G252">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>25</v>
+      </c>
+      <c r="B253">
+        <v>60.483474253070753</v>
+      </c>
+      <c r="C253">
+        <v>1.6331305445004509</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253">
+        <v>1499</v>
+      </c>
+      <c r="F253">
+        <v>1.7</v>
+      </c>
+      <c r="G253">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>25</v>
+      </c>
+      <c r="B254">
+        <v>63.699403675553597</v>
+      </c>
+      <c r="C254">
+        <v>1.6407138575137199</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <v>1535</v>
+      </c>
+      <c r="F254">
+        <v>1.3</v>
+      </c>
+      <c r="G254">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>25</v>
+      </c>
+      <c r="B255">
+        <v>62.327081077855617</v>
+      </c>
+      <c r="C255">
+        <v>1.6330221539794529</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>1353</v>
+      </c>
+      <c r="F255">
+        <v>1.7</v>
+      </c>
+      <c r="G255">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>25</v>
+      </c>
+      <c r="B256">
+        <v>61.703836230441262</v>
+      </c>
+      <c r="C256">
+        <v>1.6218446811009399</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>1337</v>
+      </c>
+      <c r="F256">
+        <v>1.3</v>
+      </c>
+      <c r="G256">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>25</v>
+      </c>
+      <c r="B257">
+        <v>64.120807878658795</v>
+      </c>
+      <c r="C257">
+        <v>1.65253040038457</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257">
+        <v>1385</v>
+      </c>
+      <c r="F257">
+        <v>1.7</v>
+      </c>
+      <c r="G257">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>25</v>
+      </c>
+      <c r="B258">
+        <v>58.525755712191703</v>
+      </c>
+      <c r="C258">
+        <v>1.62206376200231</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258">
+        <v>1307</v>
+      </c>
+      <c r="F258">
+        <v>1.7</v>
+      </c>
+      <c r="G258">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>25</v>
+      </c>
+      <c r="B259">
+        <v>65.720857066629307</v>
+      </c>
+      <c r="C259">
+        <v>1.68198916255148</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259">
+        <v>1580</v>
+      </c>
+      <c r="F259">
+        <v>1.2</v>
+      </c>
+      <c r="G259">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>25</v>
+      </c>
+      <c r="B260">
+        <v>67.238940011794796</v>
+      </c>
+      <c r="C260">
+        <v>1.7023805590149701</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260">
+        <v>1613</v>
+      </c>
+      <c r="F260">
+        <v>1.3</v>
+      </c>
+      <c r="G260">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>25</v>
+      </c>
+      <c r="B261">
+        <v>70.799525227541196</v>
+      </c>
+      <c r="C261">
+        <v>1.70247998276734</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261">
+        <v>1477</v>
+      </c>
+      <c r="F261">
+        <v>1.3</v>
+      </c>
+      <c r="G261">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>25</v>
+      </c>
+      <c r="B262">
+        <v>58.145898538558498</v>
+      </c>
+      <c r="C262">
+        <v>1.6510667420585401</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>1325</v>
+      </c>
+      <c r="F262">
+        <v>1.5</v>
+      </c>
+      <c r="G262">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>25</v>
+      </c>
+      <c r="B263">
+        <v>62.149650051330873</v>
+      </c>
+      <c r="C263">
+        <v>1.63281497046877</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263">
+        <v>1519</v>
+      </c>
+      <c r="F263">
+        <v>1.2</v>
+      </c>
+      <c r="G263">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>25</v>
+      </c>
+      <c r="B264">
+        <v>65.388157832971004</v>
+      </c>
+      <c r="C264">
+        <v>1.68164131960911</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264">
+        <v>1414</v>
+      </c>
+      <c r="F264">
+        <v>1.2</v>
+      </c>
+      <c r="G264">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>25</v>
+      </c>
+      <c r="B265">
+        <v>70.109271523074199</v>
+      </c>
+      <c r="C265">
+        <v>1.8031217157739801</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265">
+        <v>1705</v>
+      </c>
+      <c r="F265">
+        <v>1.7</v>
+      </c>
+      <c r="G265">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>25</v>
+      </c>
+      <c r="B266">
+        <v>60.169110902853497</v>
+      </c>
+      <c r="C266">
+        <v>1.631044768982199</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266">
+        <v>1333</v>
+      </c>
+      <c r="F266">
+        <v>1.9</v>
+      </c>
+      <c r="G266">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>25</v>
+      </c>
+      <c r="B267">
+        <v>62.578203867578303</v>
+      </c>
+      <c r="C267">
+        <v>1.6627133064237101</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267">
+        <v>1372</v>
+      </c>
+      <c r="F267">
+        <v>1.7</v>
+      </c>
+      <c r="G267">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>25</v>
+      </c>
+      <c r="B268">
+        <v>64.187555653623406</v>
+      </c>
+      <c r="C268">
+        <v>1.6517589622222899</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268">
+        <v>1385</v>
+      </c>
+      <c r="F268">
+        <v>1.5</v>
+      </c>
+      <c r="G268">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>25</v>
+      </c>
+      <c r="B269">
+        <v>62.947425060769042</v>
+      </c>
+      <c r="C269">
+        <v>1.6311581095655201</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269">
+        <v>1353</v>
+      </c>
+      <c r="F269">
+        <v>1.7</v>
+      </c>
+      <c r="G269">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>25</v>
+      </c>
+      <c r="B270">
+        <v>68.667874985060493</v>
+      </c>
+      <c r="C270">
+        <v>1.70155596134638</v>
+      </c>
+      <c r="D270" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270">
+        <v>1623</v>
+      </c>
+      <c r="F270">
+        <v>1.7</v>
+      </c>
+      <c r="G270">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>25</v>
+      </c>
+      <c r="B271">
+        <v>48.396135085805803</v>
+      </c>
+      <c r="C271">
+        <v>1.5607463941687201</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271">
+        <v>1169</v>
+      </c>
+      <c r="F271">
+        <v>1.9</v>
+      </c>
+      <c r="G271">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>26</v>
+      </c>
+      <c r="B272">
+        <v>67.109216523104905</v>
+      </c>
+      <c r="C272">
+        <v>1.6510772698145399</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>1576</v>
+      </c>
+      <c r="F272">
+        <v>1.3</v>
+      </c>
+      <c r="G272">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>26</v>
+      </c>
+      <c r="B273">
+        <v>68.100863108778015</v>
+      </c>
+      <c r="C273">
+        <v>1.67163407924045</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273">
+        <v>1599</v>
+      </c>
+      <c r="F273">
+        <v>1.3</v>
+      </c>
+      <c r="G273">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>26</v>
+      </c>
+      <c r="B274">
+        <v>67.107994272433459</v>
+      </c>
+      <c r="C274">
+        <v>1.631624671701972</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274">
+        <v>1564</v>
+      </c>
+      <c r="F274">
+        <v>1.7</v>
+      </c>
+      <c r="G274">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>26</v>
+      </c>
+      <c r="B275">
+        <v>66.987242309244323</v>
+      </c>
+      <c r="C275">
+        <v>1.632591153887154</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275">
+        <v>1554</v>
+      </c>
+      <c r="F275">
+        <v>1.5</v>
+      </c>
+      <c r="G275">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>26</v>
+      </c>
+      <c r="B276">
+        <v>65.265379196972503</v>
+      </c>
+      <c r="C276">
+        <v>1.6011366900889501</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276">
+        <v>1359</v>
+      </c>
+      <c r="F276">
+        <v>1.5</v>
+      </c>
+      <c r="G276">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>26</v>
+      </c>
+      <c r="B277">
+        <v>66.621392058982678</v>
+      </c>
+      <c r="C277">
+        <v>1.62240091651909</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277">
+        <v>1382</v>
+      </c>
+      <c r="F277">
+        <v>1.9</v>
+      </c>
+      <c r="G277">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>26</v>
+      </c>
+      <c r="B278">
+        <v>68.680569688848493</v>
+      </c>
+      <c r="C278">
+        <v>1.65130030912982</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278">
+        <v>1420</v>
+      </c>
+      <c r="F278">
+        <v>1.7</v>
+      </c>
+      <c r="G278">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>26</v>
+      </c>
+      <c r="B279">
+        <v>69.779588444834602</v>
+      </c>
+      <c r="C279">
+        <v>1.6617269939483901</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279">
+        <v>1437</v>
+      </c>
+      <c r="F279">
+        <v>1.2</v>
+      </c>
+      <c r="G279">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>26</v>
+      </c>
+      <c r="B280">
+        <v>60.116520345201401</v>
+      </c>
+      <c r="C280">
+        <v>1.5826654141380301</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <v>1297</v>
+      </c>
+      <c r="F280">
+        <v>1.5</v>
+      </c>
+      <c r="G280">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>26</v>
+      </c>
+      <c r="B281">
+        <v>68.187766426803833</v>
+      </c>
+      <c r="C281">
+        <v>1.70318413177673</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281">
+        <v>1618</v>
+      </c>
+      <c r="F281">
+        <v>1.2</v>
+      </c>
+      <c r="G281">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>26</v>
+      </c>
+      <c r="B282">
+        <v>67.378312543511257</v>
+      </c>
+      <c r="C282">
+        <v>1.6408577684851999</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282">
+        <v>1404</v>
+      </c>
+      <c r="F282">
+        <v>1.9</v>
+      </c>
+      <c r="G282">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>26</v>
+      </c>
+      <c r="B283">
+        <v>69.848533635833803</v>
+      </c>
+      <c r="C283">
+        <v>1.65228809669024</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283">
+        <v>1430</v>
+      </c>
+      <c r="F283">
+        <v>1.5</v>
+      </c>
+      <c r="G283">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>26</v>
+      </c>
+      <c r="B284">
+        <v>55.913500559014103</v>
+      </c>
+      <c r="C284">
+        <v>1.62107842980317</v>
+      </c>
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284">
+        <v>1272</v>
+      </c>
+      <c r="F284">
+        <v>1.2</v>
+      </c>
+      <c r="G284">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>26</v>
+      </c>
+      <c r="B285">
+        <v>66.398651311098774</v>
+      </c>
+      <c r="C285">
+        <v>1.65149759099254</v>
+      </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285">
+        <v>1400</v>
+      </c>
+      <c r="F285">
+        <v>1.5</v>
+      </c>
+      <c r="G285">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>26</v>
+      </c>
+      <c r="B286">
+        <v>70.300607584780096</v>
+      </c>
+      <c r="C286">
+        <v>1.6816419811718399</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286">
+        <v>1625</v>
+      </c>
+      <c r="F286">
+        <v>1.2</v>
+      </c>
+      <c r="G286">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>26</v>
+      </c>
+      <c r="B287">
+        <v>63.538992537316403</v>
+      </c>
+      <c r="C287">
+        <v>1.6516286430785201</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287">
+        <v>1370</v>
+      </c>
+      <c r="F287">
+        <v>1.9</v>
+      </c>
+      <c r="G287">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>26</v>
+      </c>
+      <c r="B288">
+        <v>68.821893307356603</v>
+      </c>
+      <c r="C288">
+        <v>1.6809255518773101</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288">
+        <v>1605</v>
+      </c>
+      <c r="F288">
+        <v>1.3</v>
+      </c>
+      <c r="G288">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>26</v>
+      </c>
+      <c r="B289">
+        <v>70.863051727001803</v>
+      </c>
+      <c r="C289">
+        <v>1.7209254736019399</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>1650</v>
+      </c>
+      <c r="F289">
+        <v>1.3</v>
+      </c>
+      <c r="G289">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>26</v>
+      </c>
+      <c r="B290">
+        <v>72.513921612188099</v>
+      </c>
+      <c r="C290">
+        <v>1.7510242331271999</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>1689</v>
+      </c>
+      <c r="F290">
+        <v>1.7</v>
+      </c>
+      <c r="G290">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>26</v>
+      </c>
+      <c r="B291">
+        <v>64.434969621737906</v>
+      </c>
+      <c r="C291">
+        <v>1.6229121691181201</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291">
+        <v>1362</v>
+      </c>
+      <c r="F291">
+        <v>1.9</v>
+      </c>
+      <c r="G291">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>27</v>
+      </c>
+      <c r="B292">
+        <v>67.120773594970728</v>
+      </c>
+      <c r="C292">
+        <v>1.6317039789933141</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292">
+        <v>1559</v>
+      </c>
+      <c r="F292">
+        <v>1.5</v>
+      </c>
+      <c r="G292">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>27</v>
+      </c>
+      <c r="B293">
+        <v>66.337604849849996</v>
+      </c>
+      <c r="C293">
+        <v>1.6417279315595501</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293">
+        <v>1555</v>
+      </c>
+      <c r="F293">
+        <v>1.3</v>
+      </c>
+      <c r="G293">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>27</v>
+      </c>
+      <c r="B294">
+        <v>65.406129381941</v>
+      </c>
+      <c r="C294">
+        <v>1.6611799835804899</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294">
+        <v>1558</v>
+      </c>
+      <c r="F294">
+        <v>1.7</v>
+      </c>
+      <c r="G294">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>27</v>
+      </c>
+      <c r="B295">
+        <v>60.307082435674701</v>
+      </c>
+      <c r="C295">
+        <v>1.631050204726169</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295">
+        <v>1323</v>
+      </c>
+      <c r="F295">
+        <v>1.7</v>
+      </c>
+      <c r="G295">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>27</v>
+      </c>
+      <c r="B296">
+        <v>50.3075148176505</v>
+      </c>
+      <c r="C296">
+        <v>1.60082774491706</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>1370</v>
+      </c>
+      <c r="F296">
+        <v>1.3</v>
+      </c>
+      <c r="G296">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>27</v>
+      </c>
+      <c r="B297">
+        <v>68.012196006708336</v>
+      </c>
+      <c r="C297">
+        <v>1.6511943793488899</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>1581</v>
+      </c>
+      <c r="F297">
+        <v>1.9</v>
+      </c>
+      <c r="G297">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>27</v>
+      </c>
+      <c r="B298">
+        <v>66.739521450070185</v>
+      </c>
+      <c r="C298">
+        <v>1.6010475599234799</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298">
+        <v>1364</v>
+      </c>
+      <c r="F298">
+        <v>1.2</v>
+      </c>
+      <c r="G298">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>27</v>
+      </c>
+      <c r="B299">
+        <v>67.930743260392305</v>
+      </c>
+      <c r="C299">
+        <v>1.62159640280921</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299">
+        <v>1387</v>
+      </c>
+      <c r="F299">
+        <v>1.5</v>
+      </c>
+      <c r="G299">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>27</v>
+      </c>
+      <c r="B300">
+        <v>66.741235243022913</v>
+      </c>
+      <c r="C300">
+        <v>1.631143378985864</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300">
+        <v>1549</v>
+      </c>
+      <c r="F300">
+        <v>1.3</v>
+      </c>
+      <c r="G300">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>27</v>
+      </c>
+      <c r="B301">
+        <v>62.679507295323099</v>
+      </c>
+      <c r="C301">
+        <v>1.5808175602493399</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301">
+        <v>1312</v>
+      </c>
+      <c r="F301">
+        <v>1.5</v>
+      </c>
+      <c r="G301">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>27</v>
+      </c>
+      <c r="B302">
+        <v>55.815423659883102</v>
+      </c>
+      <c r="C302">
+        <v>1.6511513688441499</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302">
+        <v>1285</v>
+      </c>
+      <c r="F302">
+        <v>1.2</v>
+      </c>
+      <c r="G302">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>27</v>
+      </c>
+      <c r="B303">
+        <v>58.074608343962403</v>
+      </c>
+      <c r="C303">
+        <v>1.6631260209430201</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303">
+        <v>1322</v>
+      </c>
+      <c r="F303">
+        <v>1.7</v>
+      </c>
+      <c r="G303">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>27</v>
+      </c>
+      <c r="B304">
+        <v>54.698951618045101</v>
+      </c>
+      <c r="C304">
+        <v>1.60300918647895</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304">
+        <v>1244</v>
+      </c>
+      <c r="F304">
+        <v>1.9</v>
+      </c>
+      <c r="G304">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>27</v>
+      </c>
+      <c r="B305">
+        <v>57.385423843374397</v>
+      </c>
+      <c r="C305">
+        <v>1.58259062329113</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305">
+        <v>1262</v>
+      </c>
+      <c r="F305">
+        <v>1.5</v>
+      </c>
+      <c r="G305">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>27</v>
+      </c>
+      <c r="B306">
+        <v>68.135398511764905</v>
+      </c>
+      <c r="C306">
+        <v>1.70129723301222</v>
+      </c>
+      <c r="D306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306">
+        <v>1613</v>
+      </c>
+      <c r="F306">
+        <v>1.3</v>
+      </c>
+      <c r="G306">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>27</v>
+      </c>
+      <c r="B307">
+        <v>66.961659412056605</v>
+      </c>
+      <c r="C307">
+        <v>1.6613293290143401</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307">
+        <v>1402</v>
+      </c>
+      <c r="F307">
+        <v>1.5</v>
+      </c>
+      <c r="G307">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>27</v>
+      </c>
+      <c r="B308">
+        <v>70.749506670700001</v>
+      </c>
+      <c r="C308">
+        <v>1.72250456038977</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308">
+        <v>1645</v>
+      </c>
+      <c r="F308">
+        <v>1.7</v>
+      </c>
+      <c r="G308">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>27</v>
+      </c>
+      <c r="B309">
+        <v>48.175405904985297</v>
+      </c>
+      <c r="C309">
+        <v>1.57129547252102</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309">
+        <v>1165</v>
+      </c>
+      <c r="F309">
+        <v>1.9</v>
+      </c>
+      <c r="G309">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>27</v>
+      </c>
+      <c r="B310">
+        <v>61.686807074499498</v>
+      </c>
+      <c r="C310">
+        <v>1.60278618813204</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310">
+        <v>1314</v>
+      </c>
+      <c r="F310">
+        <v>1.5</v>
+      </c>
+      <c r="G310">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>27</v>
+      </c>
+      <c r="B311">
+        <v>67.196118000081086</v>
+      </c>
+      <c r="C311">
+        <v>1.6811390933738499</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311">
+        <v>1424</v>
+      </c>
+      <c r="F311">
+        <v>1.2</v>
+      </c>
+      <c r="G311">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>28</v>
+      </c>
+      <c r="B312">
+        <v>67.842047006823265</v>
+      </c>
+      <c r="C312">
+        <v>1.631051726982736</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312">
+        <v>1554</v>
+      </c>
+      <c r="F312">
+        <v>1.5</v>
+      </c>
+      <c r="G312">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>28</v>
+      </c>
+      <c r="B313">
+        <v>68.186726021826559</v>
+      </c>
+      <c r="C313">
+        <v>1.6322460335887941</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313">
+        <v>1564</v>
+      </c>
+      <c r="F313">
+        <v>1.2</v>
+      </c>
+      <c r="G313">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>28</v>
+      </c>
+      <c r="B314">
+        <v>67.842833213793014</v>
+      </c>
+      <c r="C314">
+        <v>1.6313321350781691</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314">
+        <v>1554</v>
+      </c>
+      <c r="F314">
+        <v>1.5</v>
+      </c>
+      <c r="G314">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>28</v>
+      </c>
+      <c r="B315">
+        <v>67.859692949816491</v>
+      </c>
+      <c r="C315">
+        <v>1.632462622609673</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315">
+        <v>1388</v>
+      </c>
+      <c r="F315">
+        <v>1.3</v>
+      </c>
+      <c r="G315">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>28</v>
+      </c>
+      <c r="B316">
+        <v>67.942181963715711</v>
+      </c>
+      <c r="C316">
+        <v>1.633192646132323</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316">
+        <v>1554</v>
+      </c>
+      <c r="F316">
+        <v>1.7</v>
+      </c>
+      <c r="G316">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>28</v>
+      </c>
+      <c r="B317">
+        <v>60.291987379566201</v>
+      </c>
+      <c r="C317">
+        <v>1.6029503059294501</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317">
+        <v>1299</v>
+      </c>
+      <c r="F317">
+        <v>1.5</v>
+      </c>
+      <c r="G317">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>28</v>
+      </c>
+      <c r="B318">
+        <v>58.346059414085502</v>
+      </c>
+      <c r="C318">
+        <v>1.65293080977045</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318">
+        <v>1476</v>
+      </c>
+      <c r="F318">
+        <v>1.3</v>
+      </c>
+      <c r="G318">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>28</v>
+      </c>
+      <c r="B319">
+        <v>55.629792083225503</v>
+      </c>
+      <c r="C319">
+        <v>1.58320418178974</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319">
+        <v>1237</v>
+      </c>
+      <c r="F319">
+        <v>1.7</v>
+      </c>
+      <c r="G319">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>28</v>
+      </c>
+      <c r="B320">
+        <v>58.112588563065103</v>
+      </c>
+      <c r="C320">
+        <v>1.6409328878338001</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320">
+        <v>1470</v>
+      </c>
+      <c r="F320">
+        <v>1.9</v>
+      </c>
+      <c r="G320">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>28</v>
+      </c>
+      <c r="B321">
+        <v>65.970879367752985</v>
+      </c>
+      <c r="C321">
+        <v>1.68299945224699</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321">
+        <v>1399</v>
+      </c>
+      <c r="F321">
+        <v>1.7</v>
+      </c>
+      <c r="G321">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>28</v>
+      </c>
+      <c r="B322">
+        <v>68.601838144259801</v>
+      </c>
+      <c r="C322">
+        <v>1.70243375288336</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322">
+        <v>1608</v>
+      </c>
+      <c r="F322">
+        <v>1.5</v>
+      </c>
+      <c r="G322">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>28</v>
+      </c>
+      <c r="B323">
+        <v>66.19675910498394</v>
+      </c>
+      <c r="C323">
+        <v>1.65110864765767</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323">
+        <v>1390</v>
+      </c>
+      <c r="F323">
+        <v>1.2</v>
+      </c>
+      <c r="G323">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>28</v>
+      </c>
+      <c r="B324">
+        <v>48.5474037620776</v>
+      </c>
+      <c r="C324">
+        <v>1.5827371416640399</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324">
+        <v>1167</v>
+      </c>
+      <c r="F324">
+        <v>1.7</v>
+      </c>
+      <c r="G324">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>28</v>
+      </c>
+      <c r="B325">
+        <v>70.126222902458693</v>
+      </c>
+      <c r="C325">
+        <v>1.75300480922799</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325">
+        <v>1659</v>
+      </c>
+      <c r="F325">
+        <v>1.9</v>
+      </c>
+      <c r="G325">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>28</v>
+      </c>
+      <c r="B326">
+        <v>61.6291937289676</v>
+      </c>
+      <c r="C326">
+        <v>1.65232771874452</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326">
+        <v>1506</v>
+      </c>
+      <c r="F326">
+        <v>1.5</v>
+      </c>
+      <c r="G326">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>28</v>
+      </c>
+      <c r="B327">
+        <v>62.163403634050098</v>
+      </c>
+      <c r="C327">
+        <v>1.60161305746982</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327">
+        <v>1319</v>
+      </c>
+      <c r="F327">
+        <v>1.5</v>
+      </c>
+      <c r="G327">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>28</v>
+      </c>
+      <c r="B328">
+        <v>67.012643681389093</v>
+      </c>
+      <c r="C328">
+        <v>1.6626022586490601</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328">
+        <v>1573</v>
+      </c>
+      <c r="F328">
+        <v>1.7</v>
+      </c>
+      <c r="G328">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>28</v>
+      </c>
+      <c r="B329">
+        <v>57.853347361830998</v>
+      </c>
+      <c r="C329">
+        <v>1.68148300369884</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329">
+        <v>1319</v>
+      </c>
+      <c r="F329">
+        <v>1.3</v>
+      </c>
+      <c r="G329">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>28</v>
+      </c>
+      <c r="B330">
+        <v>64.289412298542302</v>
+      </c>
+      <c r="C330">
+        <v>1.6518918628044601</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330">
+        <v>1370</v>
+      </c>
+      <c r="F330">
+        <v>1.7</v>
+      </c>
+      <c r="G330">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>28</v>
+      </c>
+      <c r="B331">
+        <v>62.395773512421698</v>
+      </c>
+      <c r="C331">
+        <v>1.6124065010769799</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331">
+        <v>1325</v>
+      </c>
+      <c r="F331">
+        <v>1.5</v>
+      </c>
+      <c r="G331">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>29</v>
+      </c>
+      <c r="B332">
+        <v>67.443262024924508</v>
+      </c>
+      <c r="C332">
+        <v>1.63189526310452</v>
+      </c>
+      <c r="D332" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332">
+        <v>1549</v>
+      </c>
+      <c r="F332">
+        <v>1.5</v>
+      </c>
+      <c r="G332">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>29</v>
+      </c>
+      <c r="B333">
+        <v>66.099371385483423</v>
+      </c>
+      <c r="C333">
+        <v>1.6314485843945741</v>
+      </c>
+      <c r="D333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333">
+        <v>1539</v>
+      </c>
+      <c r="F333">
+        <v>1.2</v>
+      </c>
+      <c r="G333">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>29</v>
+      </c>
+      <c r="B334">
+        <v>65.248817107058997</v>
+      </c>
+      <c r="C334">
+        <v>1.6212051225411199</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>1523</v>
+      </c>
+      <c r="F334">
+        <v>1.7</v>
+      </c>
+      <c r="G334">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>29</v>
+      </c>
+      <c r="B335">
+        <v>60.868861664009799</v>
+      </c>
+      <c r="C335">
+        <v>1.6022672043169</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335">
+        <v>1294</v>
+      </c>
+      <c r="F335">
+        <v>1.5</v>
+      </c>
+      <c r="G335">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>29</v>
+      </c>
+      <c r="B336">
+        <v>61.679831513218403</v>
+      </c>
+      <c r="C336">
+        <v>1.6726187827777499</v>
+      </c>
+      <c r="D336" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336">
+        <v>1514</v>
+      </c>
+      <c r="F336">
+        <v>1.9</v>
+      </c>
+      <c r="G336">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>29</v>
+      </c>
+      <c r="B337">
+        <v>68.129127348345406</v>
+      </c>
+      <c r="C337">
+        <v>1.65296446365724</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337">
+        <v>1571</v>
+      </c>
+      <c r="F337">
+        <v>1.3</v>
+      </c>
+      <c r="G337">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>29</v>
+      </c>
+      <c r="B338">
+        <v>67.052649295939602</v>
+      </c>
+      <c r="C338">
+        <v>1.6521565905056901</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338">
+        <v>1395</v>
+      </c>
+      <c r="F338">
+        <v>1.5</v>
+      </c>
+      <c r="G338">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>29</v>
+      </c>
+      <c r="B339">
+        <v>70.147744074138799</v>
+      </c>
+      <c r="C339">
+        <v>1.6815219814421001</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339">
+        <v>1610</v>
+      </c>
+      <c r="F339">
+        <v>1.7</v>
+      </c>
+      <c r="G339">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>29</v>
+      </c>
+      <c r="B340">
+        <v>70.667040903118306</v>
+      </c>
+      <c r="C340">
+        <v>1.7018667470575199</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340">
+        <v>1623</v>
+      </c>
+      <c r="F340">
+        <v>1.9</v>
+      </c>
+      <c r="G340">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>29</v>
+      </c>
+      <c r="B341">
+        <v>50.363878300892402</v>
+      </c>
+      <c r="C341">
+        <v>1.5824216189223399</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341">
+        <v>1182</v>
+      </c>
+      <c r="F341">
+        <v>1.7</v>
+      </c>
+      <c r="G341">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>29</v>
+      </c>
+      <c r="B342">
+        <v>55.760474396431299</v>
+      </c>
+      <c r="C342">
+        <v>1.62161146958992</v>
+      </c>
+      <c r="D342" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342">
+        <v>1423</v>
+      </c>
+      <c r="F342">
+        <v>1.5</v>
+      </c>
+      <c r="G342">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>29</v>
+      </c>
+      <c r="B343">
+        <v>50.159786335939202</v>
+      </c>
+      <c r="C343">
+        <v>1.58201624869201</v>
+      </c>
+      <c r="D343" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343">
+        <v>1348</v>
+      </c>
+      <c r="F343">
+        <v>1.2</v>
+      </c>
+      <c r="G343">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>29</v>
+      </c>
+      <c r="B344">
+        <v>54.101016195141199</v>
+      </c>
+      <c r="C344">
+        <v>1.5719518170492801</v>
+      </c>
+      <c r="D344" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344">
+        <v>1381</v>
+      </c>
+      <c r="F344">
+        <v>1.3</v>
+      </c>
+      <c r="G344">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>29</v>
+      </c>
+      <c r="B345">
+        <v>45.271782790901597</v>
+      </c>
+      <c r="C345">
+        <v>1.55263248775579</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345">
+        <v>1113</v>
+      </c>
+      <c r="F345">
+        <v>1.5</v>
+      </c>
+      <c r="G345">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>29</v>
+      </c>
+      <c r="B346">
+        <v>48.630145099706098</v>
+      </c>
+      <c r="C346">
+        <v>1.56310334397386</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346">
+        <v>1149</v>
+      </c>
+      <c r="F346">
+        <v>1.7</v>
+      </c>
+      <c r="G346">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>29</v>
+      </c>
+      <c r="B347">
+        <v>52.871948491293502</v>
+      </c>
+      <c r="C347">
+        <v>1.59275728184298</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347">
+        <v>1208</v>
+      </c>
+      <c r="F347">
+        <v>1.2</v>
+      </c>
+      <c r="G347">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>29</v>
+      </c>
+      <c r="B348">
+        <v>51.907810032780702</v>
+      </c>
+      <c r="C348">
+        <v>1.58082973359152</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348">
+        <v>1192</v>
+      </c>
+      <c r="F348">
+        <v>1.9</v>
+      </c>
+      <c r="G348">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>29</v>
+      </c>
+      <c r="B349">
+        <v>64.0699204273877</v>
+      </c>
+      <c r="C349">
+        <v>1.6708774959722299</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349">
+        <v>1378</v>
+      </c>
+      <c r="F349">
+        <v>1.7</v>
+      </c>
+      <c r="G349">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>29</v>
+      </c>
+      <c r="B350">
+        <v>67.978888459801553</v>
+      </c>
+      <c r="C350">
+        <v>1.6307397044087251</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350">
+        <v>1383</v>
+      </c>
+      <c r="F350">
+        <v>1.5</v>
+      </c>
+      <c r="G350">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>29</v>
+      </c>
+      <c r="B351">
+        <v>68.017818234973305</v>
+      </c>
+      <c r="C351">
+        <v>1.72093457924991</v>
+      </c>
+      <c r="D351" t="s">
+        <v>8</v>
+      </c>
+      <c r="E351">
+        <v>1615</v>
+      </c>
+      <c r="F351">
+        <v>1.3</v>
+      </c>
+      <c r="G351">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="3"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="3"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="3"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="3"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="3"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
